--- a/Elecciones 11 Abril 2021/Archivos para convertir/Diccionario.xlsx
+++ b/Elecciones 11 Abril 2021/Archivos para convertir/Diccionario.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-ELECCIONES\Elecciones 11 Abril 2021\Archivos para convertir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E7597E-01E0-4C2E-996B-C5DB88283AEE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9AF9B3-23F5-4750-9241-8B87216B5150}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5220" yWindow="75" windowWidth="17730" windowHeight="15480" xr2:uid="{5C089016-8387-4436-A740-A9D835174574}"/>
+    <workbookView xWindow="30" yWindow="15" windowWidth="15735" windowHeight="15480" xr2:uid="{5C089016-8387-4436-A740-A9D835174574}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="137">
   <si>
     <t>SUB PACTO</t>
   </si>
@@ -214,6 +214,237 @@
   </si>
   <si>
     <t>PARTIDO</t>
+  </si>
+  <si>
+    <t>HUMANICEMOS CHILE</t>
+  </si>
+  <si>
+    <t>PARTIDO HUMANISTA</t>
+  </si>
+  <si>
+    <t>IGUALDAD</t>
+  </si>
+  <si>
+    <t>NO APLICA</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>C21</t>
+  </si>
+  <si>
+    <t>IGUALDAD PARA CHILE</t>
+  </si>
+  <si>
+    <t>C20</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>PARTIDO RADICAL DE CHILE</t>
+  </si>
+  <si>
+    <t>C31</t>
+  </si>
+  <si>
+    <t>ECOLOGISTAS - INDEPENDIENTES</t>
+  </si>
+  <si>
+    <t>PARTIDO ECOLOGISTA VERDE</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>I1</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>K1</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REVOLUCION DEMOCRATICA E INDEPENDIENTES </t>
+  </si>
+  <si>
+    <t>REVOLUCIÓN DEMOCRÁTICA</t>
+  </si>
+  <si>
+    <t>PARTIDO COMUNES E INDEPENDIENTES</t>
+  </si>
+  <si>
+    <t>COMUNES</t>
+  </si>
+  <si>
+    <t>CONVERGENCIA SOCIAL E INDEPENDIENTES</t>
+  </si>
+  <si>
+    <t>CONVERGENCIA SOCIAL</t>
+  </si>
+  <si>
+    <t>PARTIDO LIBERAL E INDEPENDIENTES</t>
+  </si>
+  <si>
+    <t>PARTIDO LIBERAL DE CHILE</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>E11</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>E21</t>
+  </si>
+  <si>
+    <t>E20</t>
+  </si>
+  <si>
+    <t>E31</t>
+  </si>
+  <si>
+    <t>E30</t>
+  </si>
+  <si>
+    <t>E41</t>
+  </si>
+  <si>
+    <t>E40</t>
+  </si>
+  <si>
+    <t>PARTIDO TRABAJADORES REVOLUCIONARIOS</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>G11</t>
+  </si>
+  <si>
+    <t>PARTIDO UNION PATRIOTICA</t>
+  </si>
+  <si>
+    <t>H11</t>
+  </si>
+  <si>
+    <t>I11</t>
+  </si>
+  <si>
+    <t>J11</t>
+  </si>
+  <si>
+    <t>K11</t>
+  </si>
+  <si>
+    <t>L11</t>
+  </si>
+  <si>
+    <t>M11</t>
+  </si>
+  <si>
+    <t>RADICALES E INDEPENDIENTES</t>
+  </si>
+  <si>
+    <t>I10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REPUBLICANOS E INDEPENDIENTES </t>
+  </si>
+  <si>
+    <t>REPUBLICANOS DE CHILE</t>
+  </si>
+  <si>
+    <t>J10</t>
+  </si>
+  <si>
+    <t>P.S E INDEPENDIENTES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P.P.D E INDEPENDIENTES </t>
+  </si>
+  <si>
+    <t>PARTIDO SOCIALISTA DE CHILE</t>
+  </si>
+  <si>
+    <t>PARTIDO POR LA DEMOCRACIA</t>
+  </si>
+  <si>
+    <t>K10</t>
+  </si>
+  <si>
+    <t>K21</t>
+  </si>
+  <si>
+    <t>K20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DC. PRO, CIUDADANOS E INDEPENDIENTES </t>
+  </si>
+  <si>
+    <t>PARTIDO DEMÓCRATA CRISTIANO</t>
+  </si>
+  <si>
+    <t>PARTIDO PROGRESISTA DE CHILE</t>
+  </si>
+  <si>
+    <t>CIUDADANOS</t>
+  </si>
+  <si>
+    <t>L12</t>
+  </si>
+  <si>
+    <t>L13</t>
+  </si>
+  <si>
+    <t>L10</t>
   </si>
 </sst>
 </file>
@@ -565,10 +796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FCE2F5D-3221-4BF0-A5F8-202C56CE881C}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,85 +1068,617 @@
       <c r="B14" t="s">
         <v>22</v>
       </c>
+      <c r="C14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>6</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="C21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" t="s">
+        <v>94</v>
+      </c>
+      <c r="F23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" t="s">
+        <v>96</v>
+      </c>
+      <c r="F25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" t="s">
+        <v>98</v>
+      </c>
+      <c r="F27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" t="s">
+        <v>108</v>
+      </c>
+      <c r="F30" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" t="s">
+        <v>83</v>
+      </c>
+      <c r="E31" t="s">
+        <v>111</v>
+      </c>
+      <c r="F31" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" t="s">
+        <v>118</v>
+      </c>
+      <c r="D32" t="s">
+        <v>84</v>
+      </c>
+      <c r="E32" t="s">
+        <v>75</v>
+      </c>
+      <c r="F32" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" t="s">
+        <v>118</v>
+      </c>
+      <c r="D33" t="s">
+        <v>84</v>
+      </c>
+      <c r="E33" t="s">
+        <v>42</v>
+      </c>
+      <c r="F33" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>120</v>
+      </c>
+      <c r="D34" t="s">
+        <v>85</v>
+      </c>
+      <c r="E34" t="s">
+        <v>121</v>
+      </c>
+      <c r="F34" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>120</v>
+      </c>
+      <c r="D35" t="s">
+        <v>85</v>
+      </c>
+      <c r="E35" t="s">
+        <v>42</v>
+      </c>
+      <c r="F35" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" t="s">
+        <v>123</v>
+      </c>
+      <c r="D36" t="s">
+        <v>86</v>
+      </c>
+      <c r="E36" t="s">
+        <v>125</v>
+      </c>
+      <c r="F36" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" t="s">
+        <v>123</v>
+      </c>
+      <c r="D37" t="s">
+        <v>86</v>
+      </c>
+      <c r="E37" t="s">
+        <v>42</v>
+      </c>
+      <c r="F37" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" t="s">
+        <v>124</v>
+      </c>
+      <c r="D38" t="s">
+        <v>67</v>
+      </c>
+      <c r="E38" t="s">
+        <v>126</v>
+      </c>
+      <c r="F38" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" t="s">
+        <v>124</v>
+      </c>
+      <c r="D39" t="s">
+        <v>67</v>
+      </c>
+      <c r="E39" t="s">
+        <v>42</v>
+      </c>
+      <c r="F39" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" t="s">
+        <v>130</v>
+      </c>
+      <c r="D40" t="s">
+        <v>87</v>
+      </c>
+      <c r="E40" t="s">
+        <v>131</v>
+      </c>
+      <c r="F40" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" t="s">
+        <v>130</v>
+      </c>
+      <c r="D41" t="s">
+        <v>87</v>
+      </c>
+      <c r="E41" t="s">
+        <v>132</v>
+      </c>
+      <c r="F41" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" t="s">
+        <v>130</v>
+      </c>
+      <c r="D42" t="s">
+        <v>87</v>
+      </c>
+      <c r="E42" t="s">
+        <v>133</v>
+      </c>
+      <c r="F42" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" t="s">
+        <v>130</v>
+      </c>
+      <c r="D43" t="s">
+        <v>87</v>
+      </c>
+      <c r="E43" t="s">
+        <v>42</v>
+      </c>
+      <c r="F43" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>7</v>
       </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="B44" t="s">
         <v>16</v>
+      </c>
+      <c r="C44" t="s">
+        <v>42</v>
+      </c>
+      <c r="D44" t="s">
+        <v>88</v>
+      </c>
+      <c r="E44" t="s">
+        <v>42</v>
+      </c>
+      <c r="F44" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/Elecciones 11 Abril 2021/Archivos para convertir/Diccionario.xlsx
+++ b/Elecciones 11 Abril 2021/Archivos para convertir/Diccionario.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-ELECCIONES\Elecciones 11 Abril 2021\Archivos para convertir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9AF9B3-23F5-4750-9241-8B87216B5150}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E7597E-01E0-4C2E-996B-C5DB88283AEE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="15" windowWidth="15735" windowHeight="15480" xr2:uid="{5C089016-8387-4436-A740-A9D835174574}"/>
+    <workbookView xWindow="5220" yWindow="75" windowWidth="17730" windowHeight="15480" xr2:uid="{5C089016-8387-4436-A740-A9D835174574}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="60">
   <si>
     <t>SUB PACTO</t>
   </si>
@@ -214,237 +214,6 @@
   </si>
   <si>
     <t>PARTIDO</t>
-  </si>
-  <si>
-    <t>HUMANICEMOS CHILE</t>
-  </si>
-  <si>
-    <t>PARTIDO HUMANISTA</t>
-  </si>
-  <si>
-    <t>IGUALDAD</t>
-  </si>
-  <si>
-    <t>NO APLICA</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>E2</t>
-  </si>
-  <si>
-    <t>K2</t>
-  </si>
-  <si>
-    <t>C11</t>
-  </si>
-  <si>
-    <t>C10</t>
-  </si>
-  <si>
-    <t>C21</t>
-  </si>
-  <si>
-    <t>IGUALDAD PARA CHILE</t>
-  </si>
-  <si>
-    <t>C20</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>PARTIDO RADICAL DE CHILE</t>
-  </si>
-  <si>
-    <t>C31</t>
-  </si>
-  <si>
-    <t>ECOLOGISTAS - INDEPENDIENTES</t>
-  </si>
-  <si>
-    <t>PARTIDO ECOLOGISTA VERDE</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>G1</t>
-  </si>
-  <si>
-    <t>H1</t>
-  </si>
-  <si>
-    <t>I1</t>
-  </si>
-  <si>
-    <t>J1</t>
-  </si>
-  <si>
-    <t>K1</t>
-  </si>
-  <si>
-    <t>L1</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>D11</t>
-  </si>
-  <si>
-    <t>D10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REVOLUCION DEMOCRATICA E INDEPENDIENTES </t>
-  </si>
-  <si>
-    <t>REVOLUCIÓN DEMOCRÁTICA</t>
-  </si>
-  <si>
-    <t>PARTIDO COMUNES E INDEPENDIENTES</t>
-  </si>
-  <si>
-    <t>COMUNES</t>
-  </si>
-  <si>
-    <t>CONVERGENCIA SOCIAL E INDEPENDIENTES</t>
-  </si>
-  <si>
-    <t>CONVERGENCIA SOCIAL</t>
-  </si>
-  <si>
-    <t>PARTIDO LIBERAL E INDEPENDIENTES</t>
-  </si>
-  <si>
-    <t>PARTIDO LIBERAL DE CHILE</t>
-  </si>
-  <si>
-    <t>E4</t>
-  </si>
-  <si>
-    <t>E11</t>
-  </si>
-  <si>
-    <t>E10</t>
-  </si>
-  <si>
-    <t>E21</t>
-  </si>
-  <si>
-    <t>E20</t>
-  </si>
-  <si>
-    <t>E31</t>
-  </si>
-  <si>
-    <t>E30</t>
-  </si>
-  <si>
-    <t>E41</t>
-  </si>
-  <si>
-    <t>E40</t>
-  </si>
-  <si>
-    <t>PARTIDO TRABAJADORES REVOLUCIONARIOS</t>
-  </si>
-  <si>
-    <t>F11</t>
-  </si>
-  <si>
-    <t>G11</t>
-  </si>
-  <si>
-    <t>PARTIDO UNION PATRIOTICA</t>
-  </si>
-  <si>
-    <t>H11</t>
-  </si>
-  <si>
-    <t>I11</t>
-  </si>
-  <si>
-    <t>J11</t>
-  </si>
-  <si>
-    <t>K11</t>
-  </si>
-  <si>
-    <t>L11</t>
-  </si>
-  <si>
-    <t>M11</t>
-  </si>
-  <si>
-    <t>RADICALES E INDEPENDIENTES</t>
-  </si>
-  <si>
-    <t>I10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REPUBLICANOS E INDEPENDIENTES </t>
-  </si>
-  <si>
-    <t>REPUBLICANOS DE CHILE</t>
-  </si>
-  <si>
-    <t>J10</t>
-  </si>
-  <si>
-    <t>P.S E INDEPENDIENTES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P.P.D E INDEPENDIENTES </t>
-  </si>
-  <si>
-    <t>PARTIDO SOCIALISTA DE CHILE</t>
-  </si>
-  <si>
-    <t>PARTIDO POR LA DEMOCRACIA</t>
-  </si>
-  <si>
-    <t>K10</t>
-  </si>
-  <si>
-    <t>K21</t>
-  </si>
-  <si>
-    <t>K20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DC. PRO, CIUDADANOS E INDEPENDIENTES </t>
-  </si>
-  <si>
-    <t>PARTIDO DEMÓCRATA CRISTIANO</t>
-  </si>
-  <si>
-    <t>PARTIDO PROGRESISTA DE CHILE</t>
-  </si>
-  <si>
-    <t>CIUDADANOS</t>
-  </si>
-  <si>
-    <t>L12</t>
-  </si>
-  <si>
-    <t>L13</t>
-  </si>
-  <si>
-    <t>L10</t>
   </si>
 </sst>
 </file>
@@ -796,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FCE2F5D-3221-4BF0-A5F8-202C56CE881C}">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1068,617 +837,85 @@
       <c r="B14" t="s">
         <v>22</v>
       </c>
-      <c r="C14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" t="s">
-        <v>68</v>
-      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" t="s">
-        <v>73</v>
-      </c>
-      <c r="E18" t="s">
-        <v>75</v>
-      </c>
-      <c r="F18" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" t="s">
-        <v>79</v>
-      </c>
-      <c r="E19" t="s">
-        <v>78</v>
-      </c>
-      <c r="F19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20" t="s">
-        <v>79</v>
-      </c>
-      <c r="E20" t="s">
-        <v>42</v>
-      </c>
-      <c r="F20" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" t="s">
-        <v>91</v>
-      </c>
-      <c r="D21" t="s">
-        <v>80</v>
-      </c>
-      <c r="E21" t="s">
-        <v>92</v>
-      </c>
-      <c r="F21" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" t="s">
-        <v>91</v>
-      </c>
-      <c r="D22" t="s">
-        <v>80</v>
-      </c>
-      <c r="E22" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" t="s">
-        <v>93</v>
-      </c>
-      <c r="D23" t="s">
-        <v>66</v>
-      </c>
-      <c r="E23" t="s">
-        <v>94</v>
-      </c>
-      <c r="F23" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" t="s">
-        <v>93</v>
-      </c>
-      <c r="D24" t="s">
-        <v>66</v>
-      </c>
-      <c r="E24" t="s">
-        <v>42</v>
-      </c>
-      <c r="F24" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" t="s">
-        <v>95</v>
-      </c>
-      <c r="D25" t="s">
-        <v>74</v>
-      </c>
-      <c r="E25" t="s">
-        <v>96</v>
-      </c>
-      <c r="F25" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" t="s">
-        <v>95</v>
-      </c>
-      <c r="D26" t="s">
-        <v>74</v>
-      </c>
-      <c r="E26" t="s">
-        <v>42</v>
-      </c>
-      <c r="F26" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" t="s">
-        <v>97</v>
-      </c>
-      <c r="D27" t="s">
-        <v>99</v>
-      </c>
-      <c r="E27" t="s">
-        <v>98</v>
-      </c>
-      <c r="F27" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" t="s">
-        <v>97</v>
-      </c>
-      <c r="D28" t="s">
-        <v>99</v>
-      </c>
-      <c r="E28" t="s">
-        <v>42</v>
-      </c>
-      <c r="F28" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" t="s">
-        <v>81</v>
-      </c>
-      <c r="E29" t="s">
-        <v>63</v>
-      </c>
-      <c r="F29" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30" t="s">
-        <v>82</v>
-      </c>
-      <c r="E30" t="s">
-        <v>108</v>
-      </c>
-      <c r="F30" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>63</v>
-      </c>
-      <c r="D31" t="s">
-        <v>83</v>
-      </c>
-      <c r="E31" t="s">
-        <v>111</v>
-      </c>
-      <c r="F31" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" t="s">
-        <v>118</v>
-      </c>
-      <c r="D32" t="s">
-        <v>84</v>
-      </c>
-      <c r="E32" t="s">
-        <v>75</v>
-      </c>
-      <c r="F32" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" t="s">
-        <v>118</v>
-      </c>
-      <c r="D33" t="s">
-        <v>84</v>
-      </c>
-      <c r="E33" t="s">
-        <v>42</v>
-      </c>
-      <c r="F33" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>120</v>
-      </c>
-      <c r="D34" t="s">
-        <v>85</v>
-      </c>
-      <c r="E34" t="s">
-        <v>121</v>
-      </c>
-      <c r="F34" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>120</v>
-      </c>
-      <c r="D35" t="s">
-        <v>85</v>
-      </c>
-      <c r="E35" t="s">
-        <v>42</v>
-      </c>
-      <c r="F35" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" t="s">
-        <v>123</v>
-      </c>
-      <c r="D36" t="s">
-        <v>86</v>
-      </c>
-      <c r="E36" t="s">
-        <v>125</v>
-      </c>
-      <c r="F36" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" t="s">
-        <v>27</v>
-      </c>
-      <c r="C37" t="s">
-        <v>123</v>
-      </c>
-      <c r="D37" t="s">
-        <v>86</v>
-      </c>
-      <c r="E37" t="s">
-        <v>42</v>
-      </c>
-      <c r="F37" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" t="s">
-        <v>27</v>
-      </c>
-      <c r="C38" t="s">
-        <v>124</v>
-      </c>
-      <c r="D38" t="s">
-        <v>67</v>
-      </c>
-      <c r="E38" t="s">
-        <v>126</v>
-      </c>
-      <c r="F38" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>13</v>
-      </c>
-      <c r="B39" t="s">
-        <v>27</v>
-      </c>
-      <c r="C39" t="s">
-        <v>124</v>
-      </c>
-      <c r="D39" t="s">
-        <v>67</v>
-      </c>
-      <c r="E39" t="s">
-        <v>42</v>
-      </c>
-      <c r="F39" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>14</v>
-      </c>
-      <c r="B40" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" t="s">
-        <v>130</v>
-      </c>
-      <c r="D40" t="s">
-        <v>87</v>
-      </c>
-      <c r="E40" t="s">
-        <v>131</v>
-      </c>
-      <c r="F40" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>14</v>
-      </c>
-      <c r="B41" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41" t="s">
-        <v>130</v>
-      </c>
-      <c r="D41" t="s">
-        <v>87</v>
-      </c>
-      <c r="E41" t="s">
-        <v>132</v>
-      </c>
-      <c r="F41" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>14</v>
-      </c>
-      <c r="B42" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42" t="s">
-        <v>130</v>
-      </c>
-      <c r="D42" t="s">
-        <v>87</v>
-      </c>
-      <c r="E42" t="s">
-        <v>133</v>
-      </c>
-      <c r="F42" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>14</v>
-      </c>
-      <c r="B43" t="s">
-        <v>17</v>
-      </c>
-      <c r="C43" t="s">
-        <v>130</v>
-      </c>
-      <c r="D43" t="s">
-        <v>87</v>
-      </c>
-      <c r="E43" t="s">
-        <v>42</v>
-      </c>
-      <c r="F43" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>7</v>
-      </c>
-      <c r="B44" t="s">
         <v>16</v>
-      </c>
-      <c r="C44" t="s">
-        <v>42</v>
-      </c>
-      <c r="D44" t="s">
-        <v>88</v>
-      </c>
-      <c r="E44" t="s">
-        <v>42</v>
-      </c>
-      <c r="F44" t="s">
-        <v>117</v>
       </c>
     </row>
   </sheetData>
